--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,57 +55,57 @@
     <t>died</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>fear</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -115,18 +115,18 @@
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -142,163 +142,166 @@
     <t>amazing</t>
   </si>
   <si>
-    <t>beauty</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>friend</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>dear</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>available</t>
   </si>
   <si>
     <t>give</t>
@@ -307,76 +310,61 @@
     <t>increased</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>essential</t>
   </si>
   <si>
-    <t>want</t>
+    <t>health</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>local</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
   <si>
     <t>corona</t>
@@ -737,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,7 +736,7 @@
         <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -883,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -930,13 +918,13 @@
         <v>43</v>
       </c>
       <c r="K5">
-        <v>0.9696969696969697</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -956,13 +944,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -974,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K6">
-        <v>0.9615384615384616</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -998,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1030,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="K7">
-        <v>0.9565217391304348</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1048,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1056,13 +1044,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1074,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K8">
-        <v>0.9322033898305084</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1098,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1106,13 +1094,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6986301369863014</v>
+        <v>0.72</v>
       </c>
       <c r="C9">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1124,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1156,13 +1144,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1174,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1198,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1206,13 +1194,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1224,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K11">
-        <v>0.8666666666666667</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1248,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1256,13 +1244,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1274,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K12">
-        <v>0.8660714285714286</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1298,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1306,13 +1294,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1324,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K13">
-        <v>0.8536585365853658</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L13">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1348,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1356,13 +1344,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1374,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K14">
-        <v>0.8448275862068966</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1398,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1406,13 +1394,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4871794871794872</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1424,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>0.84375</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L15">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1448,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1480,13 +1468,13 @@
         <v>54</v>
       </c>
       <c r="K16">
-        <v>0.8421052631578947</v>
+        <v>0.8203125</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1498,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1506,7 +1494,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4594594594594595</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -1524,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K17">
-        <v>0.8333333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1548,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1556,13 +1544,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4358974358974359</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1574,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K18">
-        <v>0.8085106382978723</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1598,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1606,13 +1594,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4054054054054054</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1624,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K19">
-        <v>0.8083333333333333</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L19">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1648,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1656,13 +1644,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3866666666666667</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1674,19 +1662,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K20">
-        <v>0.7857142857142857</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1698,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1706,13 +1694,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3837209302325582</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C21">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1724,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>318</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K21">
-        <v>0.7843137254901961</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1748,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1756,13 +1744,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3725490196078431</v>
+        <v>0.375</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1774,19 +1762,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K22">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1798,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1830,13 +1818,13 @@
         <v>61</v>
       </c>
       <c r="K23">
-        <v>0.7464788732394366</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M23">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1848,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1856,13 +1844,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3611111111111111</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1874,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>333</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K24">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1898,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1906,13 +1894,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.348993288590604</v>
+        <v>0.3355704697986577</v>
       </c>
       <c r="C25">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1924,19 +1912,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K25">
-        <v>0.7358490566037735</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L25">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1948,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1956,13 +1944,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3050847457627119</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1974,19 +1962,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K26">
-        <v>0.7222222222222222</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1998,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2006,13 +1994,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.291005291005291</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2024,19 +2012,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K27">
-        <v>0.71875</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L27">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="M27">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2048,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2056,13 +2044,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2857142857142857</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2074,19 +2062,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K28">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2098,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2106,13 +2094,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2777777777777778</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2124,19 +2112,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K29">
-        <v>0.6956521739130435</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2148,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2156,13 +2144,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2711864406779661</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2174,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K30">
-        <v>0.6842105263157895</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2198,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2206,13 +2194,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2545454545454545</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2224,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K31">
-        <v>0.6702127659574468</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2248,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2256,13 +2244,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.225</v>
+        <v>0.175</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2274,19 +2262,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2298,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2306,13 +2294,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1825396825396825</v>
+        <v>0.1706349206349206</v>
       </c>
       <c r="C33">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2324,19 +2312,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K33">
-        <v>0.6428571428571429</v>
+        <v>0.6292428198433421</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2348,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2356,37 +2344,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1129032258064516</v>
+        <v>0.1260053619302949</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D34">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E34">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K34">
-        <v>0.64</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2398,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2406,13 +2394,13 @@
         <v>73</v>
       </c>
       <c r="K35">
-        <v>0.6135770234986945</v>
+        <v>0.6</v>
       </c>
       <c r="L35">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2424,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2432,13 +2420,13 @@
         <v>74</v>
       </c>
       <c r="K36">
-        <v>0.6046511627906976</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2450,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2458,13 +2446,13 @@
         <v>75</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2484,13 +2472,13 @@
         <v>76</v>
       </c>
       <c r="K38">
-        <v>0.5882352941176471</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2502,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2510,25 +2498,25 @@
         <v>77</v>
       </c>
       <c r="K39">
-        <v>0.5806451612903226</v>
+        <v>0.55</v>
       </c>
       <c r="L39">
+        <v>22</v>
+      </c>
+      <c r="M39">
+        <v>22</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>18</v>
-      </c>
-      <c r="M39">
-        <v>18</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2536,13 +2524,13 @@
         <v>78</v>
       </c>
       <c r="K40">
-        <v>0.575</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2554,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2562,25 +2550,25 @@
         <v>79</v>
       </c>
       <c r="K41">
-        <v>0.575</v>
+        <v>0.54</v>
       </c>
       <c r="L41">
+        <v>27</v>
+      </c>
+      <c r="M41">
+        <v>27</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>23</v>
-      </c>
-      <c r="M41">
-        <v>23</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2588,13 +2576,13 @@
         <v>80</v>
       </c>
       <c r="K42">
-        <v>0.5714285714285714</v>
+        <v>0.5288135593220339</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2606,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2614,13 +2602,13 @@
         <v>81</v>
       </c>
       <c r="K43">
-        <v>0.5676470588235294</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L43">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2632,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2640,13 +2628,13 @@
         <v>82</v>
       </c>
       <c r="K44">
-        <v>0.5357142857142857</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2666,13 +2654,13 @@
         <v>83</v>
       </c>
       <c r="K45">
-        <v>0.5280898876404494</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L45">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M45">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2684,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2692,13 +2680,13 @@
         <v>84</v>
       </c>
       <c r="K46">
-        <v>0.5254237288135594</v>
+        <v>0.5</v>
       </c>
       <c r="L46">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2710,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>140</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2718,13 +2706,13 @@
         <v>85</v>
       </c>
       <c r="K47">
-        <v>0.5205479452054794</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L47">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M47">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2736,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2744,13 +2732,13 @@
         <v>86</v>
       </c>
       <c r="K48">
-        <v>0.5151515151515151</v>
+        <v>0.4853556485355648</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2762,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2770,13 +2758,13 @@
         <v>87</v>
       </c>
       <c r="K49">
-        <v>0.5142857142857142</v>
+        <v>0.46875</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2788,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2796,13 +2784,13 @@
         <v>88</v>
       </c>
       <c r="K50">
-        <v>0.502092050209205</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L50">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2814,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2822,7 +2810,7 @@
         <v>89</v>
       </c>
       <c r="K51">
-        <v>0.5</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="L51">
         <v>21</v>
@@ -2840,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2848,13 +2836,13 @@
         <v>90</v>
       </c>
       <c r="K52">
-        <v>0.4923076923076923</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L52">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2866,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2874,13 +2862,13 @@
         <v>91</v>
       </c>
       <c r="K53">
-        <v>0.4615384615384616</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L53">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M53">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2892,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2900,25 +2888,25 @@
         <v>92</v>
       </c>
       <c r="K54">
-        <v>0.421875</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2926,13 +2914,13 @@
         <v>93</v>
       </c>
       <c r="K55">
-        <v>0.4142857142857143</v>
+        <v>0.4</v>
       </c>
       <c r="L55">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M55">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2944,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2952,13 +2940,13 @@
         <v>94</v>
       </c>
       <c r="K56">
-        <v>0.3617021276595745</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2970,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2978,13 +2966,13 @@
         <v>95</v>
       </c>
       <c r="K57">
-        <v>0.2950819672131147</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2996,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -3004,13 +2992,13 @@
         <v>96</v>
       </c>
       <c r="K58">
-        <v>0.2777777777777778</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3022,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -3030,13 +3018,13 @@
         <v>97</v>
       </c>
       <c r="K59">
-        <v>0.2711864406779661</v>
+        <v>0.25</v>
       </c>
       <c r="L59">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3048,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -3056,13 +3044,13 @@
         <v>98</v>
       </c>
       <c r="K60">
-        <v>0.2542372881355932</v>
+        <v>0.1338582677165354</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3074,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3082,25 +3070,25 @@
         <v>99</v>
       </c>
       <c r="K61">
-        <v>0.1732283464566929</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -3108,13 +3096,13 @@
         <v>100</v>
       </c>
       <c r="K62">
-        <v>0.1368421052631579</v>
+        <v>0.1220095693779904</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3126,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>82</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -3134,25 +3122,25 @@
         <v>101</v>
       </c>
       <c r="K63">
-        <v>0.1355140186915888</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L63">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N63">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -3160,13 +3148,13 @@
         <v>102</v>
       </c>
       <c r="K64">
-        <v>0.1288343558282209</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L64">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3178,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -3186,13 +3174,13 @@
         <v>103</v>
       </c>
       <c r="K65">
-        <v>0.1153846153846154</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L65">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M65">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3204,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -3212,13 +3200,13 @@
         <v>104</v>
       </c>
       <c r="K66">
-        <v>0.1151515151515152</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="L66">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3230,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3238,13 +3226,13 @@
         <v>105</v>
       </c>
       <c r="K67">
-        <v>0.1145038167938931</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3256,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>116</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3264,13 +3252,13 @@
         <v>106</v>
       </c>
       <c r="K68">
-        <v>0.1124401913875598</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="L68">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3282,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>371</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3290,25 +3278,25 @@
         <v>107</v>
       </c>
       <c r="K69">
-        <v>0.1121495327102804</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="L69">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N69">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3316,25 +3304,25 @@
         <v>108</v>
       </c>
       <c r="K70">
-        <v>0.0880503144654088</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="L70">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M70">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>145</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -3342,13 +3330,13 @@
         <v>109</v>
       </c>
       <c r="K71">
-        <v>0.08139534883720931</v>
+        <v>0.07046979865771812</v>
       </c>
       <c r="L71">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="M71">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3360,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>158</v>
+        <v>831</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -3368,13 +3356,13 @@
         <v>110</v>
       </c>
       <c r="K72">
-        <v>0.0764525993883792</v>
+        <v>0.06104328523862375</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M72">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3386,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>302</v>
+        <v>846</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3394,25 +3382,25 @@
         <v>111</v>
       </c>
       <c r="K73">
-        <v>0.07606263982102908</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="L73">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M73">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>826</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -3420,25 +3408,25 @@
         <v>112</v>
       </c>
       <c r="K74">
-        <v>0.06086956521739131</v>
+        <v>0.04307116104868914</v>
       </c>
       <c r="L74">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="M74">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>216</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -3446,13 +3434,13 @@
         <v>113</v>
       </c>
       <c r="K75">
-        <v>0.05216426193118757</v>
+        <v>0.04</v>
       </c>
       <c r="L75">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M75">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3464,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>854</v>
+        <v>624</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3472,25 +3460,25 @@
         <v>114</v>
       </c>
       <c r="K76">
-        <v>0.04526748971193416</v>
+        <v>0.03579676674364896</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M76">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>464</v>
+        <v>835</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3498,13 +3486,13 @@
         <v>115</v>
       </c>
       <c r="K77">
-        <v>0.03785046728971963</v>
+        <v>0.02378490175801448</v>
       </c>
       <c r="L77">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="N77">
         <v>0.96</v>
@@ -3516,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>2059</v>
+        <v>944</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3524,25 +3512,25 @@
         <v>116</v>
       </c>
       <c r="K78">
-        <v>0.03575547866205306</v>
+        <v>0.02288845905867182</v>
       </c>
       <c r="L78">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M78">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>836</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3550,129 +3538,25 @@
         <v>117</v>
       </c>
       <c r="K79">
-        <v>0.03384615384615385</v>
+        <v>0.009093759799310128</v>
       </c>
       <c r="L79">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M79">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="80" spans="10:17">
-      <c r="J80" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K80">
-        <v>0.02065182316876412</v>
-      </c>
-      <c r="L80">
-        <v>64</v>
-      </c>
-      <c r="M80">
-        <v>72</v>
-      </c>
-      <c r="N80">
-        <v>0.89</v>
-      </c>
-      <c r="O80">
-        <v>0.11</v>
-      </c>
-      <c r="P80" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="81" spans="10:17">
-      <c r="J81" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K81">
-        <v>0.01758014477766287</v>
-      </c>
-      <c r="L81">
-        <v>17</v>
-      </c>
-      <c r="M81">
-        <v>18</v>
-      </c>
-      <c r="N81">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O81">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K82">
-        <v>0.01120689655172414</v>
-      </c>
-      <c r="L82">
-        <v>13</v>
-      </c>
-      <c r="M82">
-        <v>14</v>
-      </c>
-      <c r="N82">
-        <v>0.93</v>
-      </c>
-      <c r="O82">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K83">
-        <v>0.01034158570980884</v>
-      </c>
-      <c r="L83">
-        <v>33</v>
-      </c>
-      <c r="M83">
-        <v>43</v>
-      </c>
-      <c r="N83">
-        <v>0.77</v>
-      </c>
-      <c r="O83">
-        <v>0.23</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>3158</v>
+        <v>3160</v>
       </c>
     </row>
   </sheetData>
